--- a/PROYECTO MR/IPS/IPS - [MR 2.0] - [Ver Comprobante de Pago Bancario].xlsx
+++ b/PROYECTO MR/IPS/IPS - [MR 2.0] - [Ver Comprobante de Pago Bancario].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFDC182-D84D-4901-90DD-F62027758C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F436A8-FB3B-4306-994E-BFC4E64DB9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATOS!$A$25:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATOS!$B$25:$H$139</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ejemplo!$B$3:$G$4</definedName>
     <definedName name="Caracteristica_Evaluar">#REF!</definedName>
     <definedName name="Componentes">#REF!</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="217">
   <si>
     <t>CASOS DE PRUEBA</t>
   </si>
@@ -857,6 +857,42 @@
   <si>
     <t>No se puede generar el CPB</t>
   </si>
+  <si>
+    <t>CP103</t>
+  </si>
+  <si>
+    <t>CP104</t>
+  </si>
+  <si>
+    <t>CP105</t>
+  </si>
+  <si>
+    <t>CP106</t>
+  </si>
+  <si>
+    <t>CP107</t>
+  </si>
+  <si>
+    <t>CP108</t>
+  </si>
+  <si>
+    <t>CP109</t>
+  </si>
+  <si>
+    <t>CP110</t>
+  </si>
+  <si>
+    <t>CP111</t>
+  </si>
+  <si>
+    <t>CP112</t>
+  </si>
+  <si>
+    <t>CP113</t>
+  </si>
+  <si>
+    <t>CP114</t>
+  </si>
 </sst>
 </file>
 
@@ -1321,15 +1357,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1343,6 +1370,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -43560,10 +43596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H998"/>
+  <dimension ref="B3:H997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93:H93"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43579,16 +43615,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
@@ -43597,10 +43633,10 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
@@ -43612,10 +43648,10 @@
       <c r="D9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="29" t="s">
         <v>45</v>
       </c>
@@ -43627,10 +43663,10 @@
       <c r="D10" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="32" t="s">
         <v>45</v>
       </c>
@@ -43638,22 +43674,22 @@
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="4"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -43662,62 +43698,62 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="42"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="19">
         <f>COUNTIF($G:$G,"CONFORME")</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="19">
         <f>COUNTIF($G:$G,"NO CONFORME")</f>
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="42"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="19">
         <f>COUNTIF($G:$G,"NO APLICA")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="42"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="19">
         <f>COUNTIF($G:$G,"PENDIENTE")</f>
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="42"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="19">
         <f>SUM(D18:F21)</f>
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -43760,7 +43796,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>198</v>
@@ -43783,7 +43819,7 @@
         <v>32</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>198</v>
@@ -44022,7 +44058,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>198</v>
@@ -44045,7 +44081,7 @@
         <v>32</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>198</v>
@@ -44284,7 +44320,7 @@
         <v>32</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>198</v>
@@ -44307,7 +44343,7 @@
         <v>32</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>198</v>
@@ -44546,7 +44582,7 @@
         <v>32</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>198</v>
@@ -44569,7 +44605,7 @@
         <v>32</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>198</v>
@@ -44808,7 +44844,7 @@
         <v>32</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>198</v>
@@ -44831,7 +44867,7 @@
         <v>32</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>198</v>
@@ -45070,7 +45106,7 @@
         <v>32</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>198</v>
@@ -45093,7 +45129,7 @@
         <v>32</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>198</v>
@@ -45947,23 +45983,263 @@
       </c>
       <c r="H127" s="9"/>
     </row>
-    <row r="128" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" s="6">
+        <v>16</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="9"/>
+    </row>
+    <row r="129" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="6">
+        <v>16</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="9"/>
+    </row>
+    <row r="130" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D130" s="6">
+        <v>16</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="9"/>
+    </row>
+    <row r="131" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" s="6">
+        <v>16</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="9"/>
+    </row>
+    <row r="132" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D132" s="6">
+        <v>16</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" s="9"/>
+    </row>
+    <row r="133" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" s="6">
+        <v>16</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="9"/>
+    </row>
+    <row r="134" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D134" s="6">
+        <v>16</v>
+      </c>
+      <c r="E134" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="9"/>
+    </row>
+    <row r="135" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D135" s="6">
+        <v>16</v>
+      </c>
+      <c r="E135" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="9"/>
+    </row>
+    <row r="136" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136" s="6">
+        <v>16</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="9"/>
+    </row>
+    <row r="137" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D137" s="6">
+        <v>16</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" s="9"/>
+    </row>
+    <row r="138" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D138" s="6">
+        <v>16</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="139" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D139" s="6">
+        <v>16</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="9"/>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -46817,9 +47093,15 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="B25:H139" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="13">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E3:G4"/>
@@ -46827,12 +47109,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
@@ -46963,10 +47239,29 @@
     <hyperlink ref="F35" r:id="rId22" xr:uid="{B3B81B8A-857E-4EDC-86BA-87037685E039}"/>
     <hyperlink ref="F27:F34" r:id="rId23" display="https://landing-test.vuce.gob.pe/mr2/mr2-ui/" xr:uid="{37BD16E8-175A-4BF4-8B14-61724C3206E3}"/>
     <hyperlink ref="F26" r:id="rId24" xr:uid="{1A04F5F3-69EE-4FB0-84B1-5CF788C987EF}"/>
+    <hyperlink ref="B128" location="'01'!A1" display="CP01" xr:uid="{D0F84570-EDEB-4750-8A66-A1FB1CF7B1A0}"/>
+    <hyperlink ref="B130" location="'01'!A1" display="CP01" xr:uid="{41A53FEF-FD33-4591-884C-86C8728E7DC6}"/>
+    <hyperlink ref="B132" location="'2.1'!A1" display="CP2.1" xr:uid="{FAE8B819-822F-4220-A7CF-2BA57116B65B}"/>
+    <hyperlink ref="B129" location="'2.1'!A1" display="CP2.1" xr:uid="{24B99A9F-FD13-4F0F-95B5-59768D8961DC}"/>
+    <hyperlink ref="B131" location="'2.1'!A1" display="CP2.1" xr:uid="{E2D1988C-A532-4815-83FE-687E27A91B23}"/>
+    <hyperlink ref="F128:F129" r:id="rId25" display="https://landing-test.vuce.gob.pe/mr2/mr2-ui/" xr:uid="{FEDBBA66-8789-42DC-9CF9-9D775414588C}"/>
+    <hyperlink ref="F130:F131" r:id="rId26" display="https://landing-test.vuce.gob.pe/mr2/mr2-ui/" xr:uid="{7CD982C8-40A3-43AF-ACCA-106A1BD44627}"/>
+    <hyperlink ref="F132" r:id="rId27" xr:uid="{CE2BA3DE-5F6D-4E9C-9430-1893B460FB8F}"/>
+    <hyperlink ref="B133" location="'01'!A1" display="CP01" xr:uid="{CC52E9B6-318E-48E3-B3F3-162DEB825769}"/>
+    <hyperlink ref="B134" location="'2.1'!A1" display="CP2.1" xr:uid="{709A2C17-63B7-473A-94D7-3C1D7871F4CA}"/>
+    <hyperlink ref="F133:F134" r:id="rId28" display="https://landing-test.vuce.gob.pe/mr2/mr2-ui/" xr:uid="{6F5C97CA-A0DB-41D4-AF24-BCB0B41D24DF}"/>
+    <hyperlink ref="B135" location="'01'!A1" display="CP01" xr:uid="{C0A77D88-C007-4A44-BDEF-18DD080D4B48}"/>
+    <hyperlink ref="B137" location="'01'!A1" display="CP01" xr:uid="{DFA57F16-9F4A-4B47-A819-CAD51552CEA0}"/>
+    <hyperlink ref="B139" location="'2.1'!A1" display="CP2.1" xr:uid="{43521CAF-0E8C-4775-BBD4-9220B8710C0F}"/>
+    <hyperlink ref="B136" location="'2.1'!A1" display="CP2.1" xr:uid="{8B3B8E53-75C4-464C-87B8-850F54EC9C97}"/>
+    <hyperlink ref="B138" location="'2.1'!A1" display="CP2.1" xr:uid="{9C9D7C6A-5651-4149-BE91-8658B445B563}"/>
+    <hyperlink ref="F135:F136" r:id="rId29" display="https://landing-test.vuce.gob.pe/mr2/mr2-ui/" xr:uid="{14EC6187-B0A7-4866-8FE4-0EA55DC9527A}"/>
+    <hyperlink ref="F137:F138" r:id="rId30" display="https://landing-test.vuce.gob.pe/mr2/mr2-ui/" xr:uid="{A5846B21-BC75-47FE-AEF1-05164A486CC1}"/>
+    <hyperlink ref="F139" r:id="rId31" xr:uid="{56446252-B9DD-4E51-943F-3AC8304B8FB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId25"/>
-  <drawing r:id="rId26"/>
+  <pageSetup orientation="landscape" r:id="rId32"/>
+  <drawing r:id="rId33"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -46974,7 +47269,7 @@
           <x14:formula1>
             <xm:f>Ejemplo!$B$10:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G26:G127</xm:sqref>
+          <xm:sqref>G26:G139</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -54621,6 +54916,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -54881,28 +55197,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <Fehca xmlns="328335c8-173a-4c26-85d0-3846c13a1e29" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9215699A-FD2A-4345-A19D-0C964345EF08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965534D7-8520-4EE0-9159-31E6ABCE19FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81999892-D045-4787-9EDB-20EA2EC41316}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54919,23 +55233,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965534D7-8520-4EE0-9159-31E6ABCE19FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9215699A-FD2A-4345-A19D-0C964345EF08}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>